--- a/paso1_multiclass_5000_LR_KNN_CART_RFC.xlsx
+++ b/paso1_multiclass_5000_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.792</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.721</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.844</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
